--- a/biology/Botanique/Beurré_précoce_Morettini/Beurré_précoce_Morettini.xlsx
+++ b/biology/Botanique/Beurré_précoce_Morettini/Beurré_précoce_Morettini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_pr%C3%A9coce_Morettini</t>
+          <t>Beurré_précoce_Morettini</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Beurré précoce Morettini est une variété de poire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_pr%C3%A9coce_Morettini</t>
+          <t>Beurré_précoce_Morettini</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Précoce Morettini.
 Beurré Précoce Morettini.
-Butirra Precoce Morettini[1].</t>
+Butirra Precoce Morettini.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_pr%C3%A9coce_Morettini</t>
+          <t>Beurré_précoce_Morettini</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Issue d'un croisement entre Bartlett x Coscia, la variété est obtenue par Morettini en 1956, en Italie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issue d'un croisement entre Bartlett x Coscia, la variété est obtenue par Morettini en 1956, en Italie.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_pr%C3%A9coce_Morettini</t>
+          <t>Beurré_précoce_Morettini</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poirier est considéré comme précoce (2 semaines plus tôt que Bartlett)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poirier est considéré comme précoce (2 semaines plus tôt que Bartlett).
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_pr%C3%A9coce_Morettini</t>
+          <t>Beurré_précoce_Morettini</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec l'épiderme jaune, le fruit présente une  chair blanche juteuse[1]. Le fruit rougit à l'insolation.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec l'épiderme jaune, le fruit présente une  chair blanche juteuse. Le fruit rougit à l'insolation.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_pr%C3%A9coce_Morettini</t>
+          <t>Beurré_précoce_Morettini</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Appréciation générale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une des meilleures poires précoces, bien sucrée, parfumée[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une des meilleures poires précoces, bien sucrée, parfumée.
 </t>
         </is>
       </c>
